--- a/z-support-files/z Previous Vers Files/Geiger-originals/Letter-tracker-edited.xlsx
+++ b/z-support-files/z Previous Vers Files/Geiger-originals/Letter-tracker-edited.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="24820" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="542">
   <si>
     <t>File</t>
   </si>
@@ -1629,9 +1629,6 @@
     <t>fixed</t>
   </si>
   <si>
-    <t>private; review layout</t>
-  </si>
-  <si>
     <t>page 4 pb missing; fixed</t>
   </si>
   <si>
@@ -1645,6 +1642,9 @@
   </si>
   <si>
     <t>need images 5-8</t>
+  </si>
+  <si>
+    <t>resovled</t>
   </si>
 </sst>
 </file>
@@ -1724,8 +1724,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1800,7 +1812,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1824,6 +1836,12 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1847,6 +1865,12 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2179,8 +2203,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D285" sqref="D285"/>
+      <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9862,7 +9886,9 @@
       <c r="C256" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D256" s="2"/>
+      <c r="D256" s="8" t="s">
+        <v>535</v>
+      </c>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
@@ -10024,7 +10050,9 @@
       <c r="C261" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="D261" s="2"/>
+      <c r="D261" s="8" t="s">
+        <v>535</v>
+      </c>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
@@ -10154,7 +10182,9 @@
       <c r="C265" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D265" s="2"/>
+      <c r="D265" s="8" t="s">
+        <v>535</v>
+      </c>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
@@ -10252,7 +10282,9 @@
       <c r="C268" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D268" s="2"/>
+      <c r="D268" s="8" t="s">
+        <v>535</v>
+      </c>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
@@ -10510,8 +10542,8 @@
       <c r="C276" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="D276" s="1" t="s">
-        <v>536</v>
+      <c r="D276" s="9" t="s">
+        <v>541</v>
       </c>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -10610,7 +10642,9 @@
       <c r="C279" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D279" s="2"/>
+      <c r="D279" s="8" t="s">
+        <v>535</v>
+      </c>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
@@ -11493,7 +11527,7 @@
         <v>532</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -12157,7 +12191,7 @@
         <v>522</v>
       </c>
       <c r="D326" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
@@ -13259,7 +13293,7 @@
         <v>524</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
@@ -13519,7 +13553,7 @@
         <v>525</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
@@ -13555,7 +13589,7 @@
         <v>526</v>
       </c>
       <c r="D369" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
